--- a/Documentacion/Primeros y Siguientes.xlsx
+++ b/Documentacion/Primeros y Siguientes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\Proyectos\Lenguajes Formales\ProyectoFinalLenguajes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\Proyectos\Lenguajes Formales\ProyectoFinalLenguajes\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226FAB88-618E-4123-B1FB-2422AFA2FA2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2668BB54-2E56-4D8A-822F-D2153DC7FDDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4D80E8CE-5779-457C-B2F1-9B493165BB0B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4D80E8CE-5779-457C-B2F1-9B493165BB0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Primeros y Siguientes" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="156">
   <si>
     <t>No. Terminal</t>
   </si>
@@ -315,9 +315,6 @@
     <t>principal ()</t>
   </si>
   <si>
-    <t>{C}</t>
-  </si>
-  <si>
     <t>CODE C</t>
   </si>
   <si>
@@ -397,9 +394,6 @@
     <t>OP_INC_DEC</t>
   </si>
   <si>
-    <t>TD BODY_VAR FIN_VAR</t>
-  </si>
-  <si>
     <t>HACER_BLOCK MIENTRAS_BLOCK</t>
   </si>
   <si>
@@ -448,6 +442,9 @@
   </si>
   <si>
     <r>
+      <t>"</t>
+    </r>
+    <r>
       <rPr>
         <sz val="14"/>
         <color rgb="FF00B050"/>
@@ -455,6 +452,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" VALOR FIN_IMPRI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>id</t>
     </r>
     <r>
@@ -465,7 +487,295 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ASIG</t>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IF_BODY END_IF</t>
+    </r>
+  </si>
+  <si>
+    <t>DESDE_BLOCK HASTA_BLOCK INCREMENTO_BLOCK</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DESDE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> VAR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>leer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BODY_LEER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> VALOR FIN_IMPRI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CONDI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MIENTRAS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CONDICION ;</t>
+    </r>
+  </si>
+  <si>
+    <t>CONDICION CODIGO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SINO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CODIGO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SINO_SI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IF_BODY END_IF</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HASTA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CONDI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INCREMENTO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ENTERO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CODIGO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASIG</t>
     </r>
   </si>
   <si>
@@ -480,6 +790,141 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" VALOR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BODY_VAR FIN_VAR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CHANGE_VALOR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>M SUMA</t>
+  </si>
+  <si>
+    <t>NOT CONDI_BODY CONDI2</t>
+  </si>
+  <si>
+    <t>VALOR SEG_DATO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CONDI_BODY CONDI2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NOT VALOR</t>
+    </r>
+  </si>
+  <si>
+    <t>P MULTI</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>+</t>
     </r>
     <r>
@@ -490,22 +935,104 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>" VALOR FIN_IMPRI</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t>" M SUMA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" M SUMA</t>
+    </r>
+  </si>
+  <si>
+    <t>S POTENCIA</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" ASIG_VALOR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>(</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VALOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>id</t>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
     </r>
     <r>
       <rPr>
@@ -515,7 +1042,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
+      <t xml:space="preserve"> P MULTI</t>
     </r>
   </si>
   <si>
@@ -527,7 +1054,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>SI</t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -537,11 +1064,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> IF_BODY END_IF</t>
-    </r>
-  </si>
-  <si>
-    <t>DESDE_BLOCK HASTA_BLOCK INCREMENTO_BLOCK</t>
+      <t xml:space="preserve"> P MULTI</t>
+    </r>
   </si>
   <si>
     <r>
@@ -552,7 +1076,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>DESDE</t>
+      <t>^</t>
     </r>
     <r>
       <rPr>
@@ -562,7 +1086,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> VAR</t>
+      <t xml:space="preserve"> P</t>
     </r>
   </si>
   <si>
@@ -574,7 +1098,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>leer</t>
+      <t>TD</t>
     </r>
     <r>
       <rPr>
@@ -584,8 +1108,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> BODY_LEER </t>
-    </r>
+      <t xml:space="preserve"> BODY_VAR FIN_VAR</t>
+    </r>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -594,10 +1123,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
     <r>
       <rPr>
         <sz val="14"/>
@@ -606,530 +1143,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> VALOR FIN_IMPRI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">CONDI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MIENTRAS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CONDICION ;</t>
-    </r>
-  </si>
-  <si>
-    <t>CONDICION CODIGO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SINO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CODIGO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SINO_SI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> IF_BODY END_IF</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HASTA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CONDI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INCREMENTO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ENTERO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CODIGO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TD </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BODY_VAR FIN_VAR</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASIG</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" VALOR</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> BODY_VAR FIN_VAR</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CHANGE_VALOR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <t>M SUMA</t>
-  </si>
-  <si>
-    <t>NOT CONDI_BODY CONDI2</t>
-  </si>
-  <si>
-    <t>VALOR SEG_DATO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CONDI_BODY CONDI2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> NOT VALOR</t>
-    </r>
-  </si>
-  <si>
-    <t>P MULTI</t>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" M SUMA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" M SUMA</t>
-    </r>
-  </si>
-  <si>
-    <t>S POTENCIA</t>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" ASIG_VALOR</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>VALOR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> P MULTI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> P MULTI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> P</t>
+      <t>}</t>
     </r>
   </si>
 </sst>
@@ -1264,7 +1278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1311,9 +1325,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1632,7 +1643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB9F1EC-A0EA-4A22-9A76-7C76FD4EDC27}">
   <dimension ref="B1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1702,7 +1713,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H5" s="14"/>
     </row>
@@ -1711,7 +1722,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>5</v>
@@ -1726,43 +1737,43 @@
         <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H7" s="14"/>
     </row>
     <row r="8" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H9" s="13"/>
     </row>
@@ -1777,7 +1788,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H10" s="13"/>
     </row>
@@ -1792,7 +1803,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H11" s="13"/>
     </row>
@@ -1807,7 +1818,7 @@
         <v>9</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H12" s="13"/>
     </row>
@@ -1822,7 +1833,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H13" s="13"/>
     </row>
@@ -1837,7 +1848,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H14" s="13"/>
     </row>
@@ -1852,7 +1863,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H15" s="14"/>
     </row>
@@ -1867,7 +1878,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H16" s="14"/>
     </row>
@@ -1882,7 +1893,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H17" s="14"/>
     </row>
@@ -1942,7 +1953,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H21" s="14"/>
     </row>
@@ -1957,7 +1968,7 @@
         <v>18</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H22" s="14"/>
     </row>
@@ -1972,7 +1983,7 @@
         <v>19</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H23" s="14"/>
     </row>
@@ -2017,7 +2028,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H26" s="14"/>
     </row>
@@ -2032,7 +2043,7 @@
         <v>25</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H27" s="14"/>
     </row>
@@ -2041,13 +2052,13 @@
         <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H28" s="14"/>
     </row>
@@ -2056,28 +2067,28 @@
         <v>23</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H29" s="14"/>
     </row>
     <row r="30" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H30" s="14"/>
     </row>
@@ -2092,7 +2103,7 @@
         <v>27</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H31" s="14"/>
     </row>
@@ -2182,7 +2193,7 @@
         <v>34</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H37" s="14"/>
     </row>
@@ -2197,7 +2208,7 @@
         <v>35</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H38" s="14"/>
     </row>
@@ -2212,7 +2223,7 @@
         <v>37</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H39" s="14"/>
     </row>
@@ -2227,7 +2238,7 @@
         <v>36</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H40" s="14"/>
     </row>
@@ -2242,7 +2253,7 @@
         <v>38</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H41" s="14"/>
     </row>
@@ -2257,7 +2268,7 @@
         <v>39</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H42" s="14"/>
     </row>
@@ -2272,7 +2283,7 @@
         <v>40</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H43" s="14"/>
     </row>
@@ -2290,10 +2301,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FB5107-BCB9-4175-9B7D-4A97A72C27AE}">
-  <dimension ref="B2:AJ45"/>
+  <dimension ref="A1:AJ43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2326,7 +2337,111 @@
     <col min="36" max="36" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>4</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>6</v>
+      </c>
+      <c r="J1">
+        <v>7</v>
+      </c>
+      <c r="K1">
+        <v>8</v>
+      </c>
+      <c r="L1">
+        <v>9</v>
+      </c>
+      <c r="M1">
+        <v>10</v>
+      </c>
+      <c r="N1">
+        <v>11</v>
+      </c>
+      <c r="O1">
+        <v>12</v>
+      </c>
+      <c r="P1">
+        <v>13</v>
+      </c>
+      <c r="Q1">
+        <v>14</v>
+      </c>
+      <c r="R1">
+        <v>15</v>
+      </c>
+      <c r="S1">
+        <v>16</v>
+      </c>
+      <c r="T1">
+        <v>17</v>
+      </c>
+      <c r="U1">
+        <v>18</v>
+      </c>
+      <c r="V1">
+        <v>19</v>
+      </c>
+      <c r="W1">
+        <v>20</v>
+      </c>
+      <c r="X1">
+        <v>21</v>
+      </c>
+      <c r="Y1">
+        <v>22</v>
+      </c>
+      <c r="Z1">
+        <v>23</v>
+      </c>
+      <c r="AA1">
+        <v>24</v>
+      </c>
+      <c r="AB1">
+        <v>25</v>
+      </c>
+      <c r="AC1">
+        <v>26</v>
+      </c>
+      <c r="AD1">
+        <v>27</v>
+      </c>
+      <c r="AE1">
+        <v>28</v>
+      </c>
+      <c r="AF1">
+        <v>29</v>
+      </c>
+      <c r="AG1">
+        <v>30</v>
+      </c>
+      <c r="AH1">
+        <v>31</v>
+      </c>
+      <c r="AI1">
+        <v>32</v>
+      </c>
+      <c r="AJ1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="18" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="10" t="s">
         <v>24</v>
@@ -2380,10 +2495,10 @@
         <v>86</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U2" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V2" s="10" t="s">
         <v>89</v>
@@ -2395,7 +2510,7 @@
         <v>88</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z2" s="10" t="s">
         <v>43</v>
@@ -2431,13 +2546,16 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2472,7 +2590,10 @@
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
     </row>
-    <row r="4" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2513,7 +2634,10 @@
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2522,7 +2646,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -2554,19 +2678,22 @@
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
     </row>
-    <row r="6" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -2574,7 +2701,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -2588,35 +2715,38 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2629,7 +2759,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -2666,20 +2796,21 @@
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
     </row>
-    <row r="8" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -2697,33 +2828,24 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
-      <c r="Z8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD8" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
-      <c r="AG8" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
     </row>
-    <row r="9" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
       <c r="B9" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2737,7 +2859,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -2761,7 +2883,10 @@
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
     </row>
-    <row r="10" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -2791,7 +2916,7 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -2801,7 +2926,10 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="2:36" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>8</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2832,7 +2960,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
@@ -2841,7 +2969,10 @@
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
     </row>
-    <row r="12" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
@@ -2873,7 +3004,7 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
@@ -2881,7 +3012,10 @@
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
     </row>
-    <row r="13" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -2908,9 +3042,6 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
-      <c r="Z13" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
@@ -2918,13 +3049,16 @@
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
     </row>
-    <row r="14" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11</v>
+      </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -2951,9 +3085,8 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2" t="s">
-        <v>129</v>
+      <c r="Z14" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
@@ -2965,7 +3098,10 @@
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
     </row>
-    <row r="15" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12</v>
+      </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
@@ -2993,7 +3129,9 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
+      <c r="AA15" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
@@ -3004,7 +3142,10 @@
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
     </row>
-    <row r="16" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>13</v>
+      </c>
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
@@ -3012,7 +3153,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
       <c r="F16" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -3044,14 +3185,17 @@
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
     </row>
-    <row r="17" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>14</v>
+      </c>
       <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -3063,7 +3207,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -3087,14 +3231,17 @@
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
     </row>
-    <row r="18" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>15</v>
+      </c>
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3128,14 +3275,17 @@
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
     </row>
-    <row r="19" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>16</v>
+      </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3168,7 +3318,10 @@
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
     </row>
-    <row r="20" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>17</v>
+      </c>
       <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
@@ -3197,7 +3350,7 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AC20" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
@@ -3207,7 +3360,10 @@
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
     </row>
-    <row r="21" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>18</v>
+      </c>
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
@@ -3237,7 +3393,7 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
@@ -3248,14 +3404,17 @@
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
     </row>
-    <row r="22" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>19</v>
+      </c>
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -3288,19 +3447,22 @@
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
     </row>
-    <row r="23" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>20</v>
+      </c>
       <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -3308,7 +3470,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -3322,34 +3484,37 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC23" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AF23" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AG23" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
     </row>
-    <row r="24" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>21</v>
+      </c>
       <c r="B24" s="2" t="s">
         <v>20</v>
       </c>
@@ -3384,12 +3549,15 @@
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
     </row>
-    <row r="25" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>22</v>
+      </c>
       <c r="B25" s="2" t="s">
         <v>21</v>
       </c>
@@ -3425,11 +3593,14 @@
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AJ25" s="2"/>
     </row>
-    <row r="26" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>23</v>
+      </c>
       <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
@@ -3466,17 +3637,18 @@
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AJ26" s="2"/>
     </row>
-    <row r="27" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>24</v>
+      </c>
       <c r="B27" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>138</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -3487,7 +3659,9 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="N27" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -3511,9 +3685,12 @@
       <c r="AI27" s="2"/>
       <c r="AJ27" s="2"/>
     </row>
-    <row r="28" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>25</v>
+      </c>
       <c r="B28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3526,16 +3703,17 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="N28" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
+      <c r="T28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
@@ -3550,11 +3728,16 @@
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
-      <c r="AJ28" s="2"/>
-    </row>
-    <row r="29" spans="2:36" ht="18" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
+      <c r="AJ28" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>26</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -3567,16 +3750,17 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="U29" s="2" t="s">
-        <v>96</v>
+        <v>137</v>
+      </c>
+      <c r="U29" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
@@ -3592,13 +3776,14 @@
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
-      <c r="AJ29" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="2:36" ht="18" x14ac:dyDescent="0.3">
-      <c r="B30" s="15" t="s">
-        <v>23</v>
+      <c r="AJ29" s="2"/>
+    </row>
+    <row r="30" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3617,16 +3802,14 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
-      <c r="T30" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="U30" s="17" t="s">
-        <v>99</v>
-      </c>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
+      <c r="Y30" s="17" t="s">
+        <v>117</v>
+      </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
@@ -3637,28 +3820,47 @@
       <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
-      <c r="AJ30" s="2"/>
-    </row>
-    <row r="31" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="AJ30" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>28</v>
+      </c>
       <c r="B31" s="2" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
+      <c r="I31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="N31" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
+      <c r="P31" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
@@ -3678,16 +3880,21 @@
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
-      <c r="AJ31" s="1"/>
-    </row>
-    <row r="32" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="AJ31" s="2"/>
+    </row>
+    <row r="32" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>29</v>
+      </c>
       <c r="B32" s="2" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -3697,18 +3904,17 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
+      <c r="V32" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
-      <c r="Y32" s="17" t="s">
-        <v>118</v>
-      </c>
+      <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
@@ -3718,51 +3924,56 @@
       <c r="AF32" s="2"/>
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
-      <c r="AI32" s="2"/>
-      <c r="AJ32" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="2:36" ht="18" x14ac:dyDescent="0.3">
-      <c r="B33" s="2" t="s">
-        <v>27</v>
+      <c r="AI32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ32" s="2"/>
+    </row>
+    <row r="33" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
+      <c r="V33" s="17" t="s">
+        <v>89</v>
+      </c>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
@@ -3778,33 +3989,49 @@
       <c r="AI33" s="2"/>
       <c r="AJ33" s="2"/>
     </row>
-    <row r="34" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>31</v>
+      </c>
       <c r="B34" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="E34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="I34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="O34" s="2"/>
+      <c r="P34" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
-      <c r="V34" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="V34" s="2"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
@@ -3817,55 +4044,42 @@
       <c r="AF34" s="2"/>
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
-      <c r="AI34" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="AI34" s="2"/>
       <c r="AJ34" s="2"/>
     </row>
-    <row r="35" spans="2:36" ht="18" x14ac:dyDescent="0.3">
-      <c r="B35" s="5" t="s">
-        <v>29</v>
+    <row r="35" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
-      <c r="V35" s="17" t="s">
-        <v>89</v>
-      </c>
+      <c r="V35" s="2"/>
       <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
+      <c r="X35" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
@@ -3876,51 +4090,46 @@
       <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
-      <c r="AI35" s="2"/>
+      <c r="AI35" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="AJ35" s="2"/>
     </row>
-    <row r="36" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>33</v>
+      </c>
       <c r="B36" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
+      <c r="W36" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="X36" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
@@ -3931,29 +4140,48 @@
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
-      <c r="AI36" s="2"/>
+      <c r="AI36" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="AJ36" s="2"/>
     </row>
-    <row r="37" spans="2:36" ht="18" x14ac:dyDescent="0.3">
-      <c r="B37" s="2" t="s">
-        <v>31</v>
+    <row r="37" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="E37" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="I37" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
+      <c r="P37" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
@@ -3961,9 +4189,7 @@
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
-      <c r="X37" s="2" t="s">
-        <v>146</v>
-      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
@@ -3974,20 +4200,21 @@
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
-      <c r="AI37" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="AI37" s="2"/>
       <c r="AJ37" s="2"/>
     </row>
-    <row r="38" spans="2:36" ht="18" x14ac:dyDescent="0.3">
-      <c r="B38" s="2" t="s">
-        <v>32</v>
+    <row r="38" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -3997,21 +4224,31 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
+      <c r="O38" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
+      <c r="T38" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="V38" s="2"/>
       <c r="W38" s="2" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y38" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="Y38" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
@@ -4022,43 +4259,48 @@
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
       <c r="AI38" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ38" s="2"/>
-    </row>
-    <row r="39" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="AJ38" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>36</v>
+      </c>
       <c r="B39" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -4081,15 +4323,18 @@
       <c r="AI39" s="2"/>
       <c r="AJ39" s="2"/>
     </row>
-    <row r="40" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>37</v>
+      </c>
       <c r="B40" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -4100,29 +4345,33 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="P40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q40" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
+      <c r="R40" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="S40" s="2"/>
       <c r="T40" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V40" s="2"/>
       <c r="W40" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y40" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
@@ -4134,45 +4383,48 @@
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
       <c r="AI40" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ40" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>38</v>
+      </c>
       <c r="B41" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
@@ -4195,15 +4447,18 @@
       <c r="AI41" s="2"/>
       <c r="AJ41" s="2"/>
     </row>
-    <row r="42" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>39</v>
+      </c>
       <c r="B42" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -4214,33 +4469,35 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="S42" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="T42" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y42" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
@@ -4252,184 +4509,67 @@
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
       <c r="AI42" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ42" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="2:36" ht="18" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" ht="18" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>40</v>
+      </c>
       <c r="B43" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
       <c r="E43" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
-      <c r="AA43" s="2"/>
-      <c r="AB43" s="2"/>
-      <c r="AC43" s="2"/>
-      <c r="AD43" s="2"/>
-      <c r="AE43" s="2"/>
-      <c r="AF43" s="2"/>
-      <c r="AG43" s="2"/>
-      <c r="AH43" s="2"/>
-      <c r="AI43" s="2"/>
-      <c r="AJ43" s="2"/>
-    </row>
-    <row r="44" spans="2:36" ht="18" x14ac:dyDescent="0.3">
-      <c r="B44" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S44" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="U44" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="X44" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y44" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
-      <c r="AF44" s="2"/>
-      <c r="AG44" s="2"/>
-      <c r="AH44" s="2"/>
-      <c r="AI44" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ44" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="2:36" ht="18" x14ac:dyDescent="0.3">
-      <c r="B45" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="J45" s="17" t="s">
+      <c r="J43" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="K45" s="17" t="s">
+      <c r="K43" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="L45" s="17" t="s">
+      <c r="L43" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="M45" s="17" t="s">
+      <c r="M43" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="N45" s="17" t="s">
+      <c r="N43" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
-      <c r="AA45" s="1"/>
-      <c r="AB45" s="1"/>
-      <c r="AC45" s="1"/>
-      <c r="AD45" s="1"/>
-      <c r="AE45" s="1"/>
-      <c r="AF45" s="1"/>
-      <c r="AG45" s="1"/>
-      <c r="AH45" s="1"/>
-      <c r="AI45" s="1"/>
-      <c r="AJ45" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentacion/Primeros y Siguientes.xlsx
+++ b/Documentacion/Primeros y Siguientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\Proyectos\Lenguajes Formales\ProyectoFinalLenguajes\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2668BB54-2E56-4D8A-822F-D2153DC7FDDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04FBCEE-A9C5-4E1A-B176-8E78F3452799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4D80E8CE-5779-457C-B2F1-9B493165BB0B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="158">
   <si>
     <t>No. Terminal</t>
   </si>
@@ -321,9 +321,6 @@
     <t>ϵ</t>
   </si>
   <si>
-    <t>MIENTRAS CONDICION CODIGO</t>
-  </si>
-  <si>
     <t>) ;</t>
   </si>
   <si>
@@ -467,17 +464,93 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IF_BODY END_IF</t>
+    </r>
+  </si>
+  <si>
+    <t>DESDE_BLOCK HASTA_BLOCK INCREMENTO_BLOCK</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>leer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BODY_LEER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>(</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> VALOR FIN_IMPRI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>id</t>
+      <t xml:space="preserve">( </t>
     </r>
     <r>
       <rPr>
@@ -487,10 +560,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">CONDI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
+    <t>CONDICION CODIGO</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -499,7 +585,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>SI</t>
+      <t>SINO</t>
     </r>
     <r>
       <rPr>
@@ -509,13 +595,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> CODIGO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SINO_SI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> IF_BODY END_IF</t>
     </r>
   </si>
   <si>
-    <t>DESDE_BLOCK HASTA_BLOCK INCREMENTO_BLOCK</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -524,6 +629,445 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>HASTA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CONDI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INCREMENTO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ENTERO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CODIGO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" VALOR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BODY_VAR FIN_VAR</t>
+    </r>
+  </si>
+  <si>
+    <t>M SUMA</t>
+  </si>
+  <si>
+    <t>NOT CONDI_BODY CONDI2</t>
+  </si>
+  <si>
+    <t>VALOR SEG_DATO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CONDI_BODY CONDI2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NOT VALOR</t>
+    </r>
+  </si>
+  <si>
+    <t>P MULTI</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" M SUMA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" M SUMA</t>
+    </r>
+  </si>
+  <si>
+    <t>S POTENCIA</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" ASIG_VALOR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VALOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> P MULTI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> P MULTI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> P</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BODY_VAR FIN_VAR</t>
+    </r>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>( id )</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MIENTRAS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CONDICION </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>{TD, id, } , MIENTRAS, HACER, HASTA, 
+ SI, DESDE, imprimir, leer, ϵ}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>DESDE</t>
     </r>
     <r>
@@ -534,7 +1078,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> VAR</t>
+      <t xml:space="preserve"> DECLARAR_VAR</t>
     </r>
   </si>
   <si>
@@ -546,7 +1090,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>leer</t>
+      <t xml:space="preserve">ID </t>
     </r>
     <r>
       <rPr>
@@ -556,8 +1100,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> BODY_LEER </t>
-    </r>
+      <t>ASIG</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -566,10 +1112,33 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CHANGE_VALOR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>;</t>
     </r>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -578,7 +1147,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(</t>
+      <t>MIENTRAS</t>
     </r>
     <r>
       <rPr>
@@ -588,562 +1157,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> VALOR FIN_IMPRI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">CONDI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MIENTRAS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CONDICION ;</t>
-    </r>
-  </si>
-  <si>
-    <t>CONDICION CODIGO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SINO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CODIGO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SINO_SI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> IF_BODY END_IF</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HASTA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CONDI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INCREMENTO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ENTERO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CODIGO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ASIG</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" VALOR</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> BODY_VAR FIN_VAR</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CHANGE_VALOR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <t>M SUMA</t>
-  </si>
-  <si>
-    <t>NOT CONDI_BODY CONDI2</t>
-  </si>
-  <si>
-    <t>VALOR SEG_DATO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CONDI_BODY CONDI2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> NOT VALOR</t>
-    </r>
-  </si>
-  <si>
-    <t>P MULTI</t>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" M SUMA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" M SUMA</t>
-    </r>
-  </si>
-  <si>
-    <t>S POTENCIA</t>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" ASIG_VALOR</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>VALOR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> P MULTI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> P MULTI</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> P</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> BODY_VAR FIN_VAR</t>
-    </r>
-  </si>
-  <si>
-    <t>PRI</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
+      <t xml:space="preserve"> CONDICION CODIGO</t>
     </r>
   </si>
 </sst>
@@ -1643,8 +1657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB9F1EC-A0EA-4A22-9A76-7C76FD4EDC27}">
   <dimension ref="B1:H48"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A27" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1713,7 +1727,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H5" s="14"/>
     </row>
@@ -1722,7 +1736,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>5</v>
@@ -1737,43 +1751,43 @@
         <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="H7" s="14"/>
     </row>
     <row r="8" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="2:8" ht="72" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H9" s="13"/>
     </row>
@@ -1788,7 +1802,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H10" s="13"/>
     </row>
@@ -1803,7 +1817,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H11" s="13"/>
     </row>
@@ -1818,7 +1832,7 @@
         <v>9</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H12" s="13"/>
     </row>
@@ -1833,7 +1847,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H13" s="13"/>
     </row>
@@ -1848,7 +1862,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H14" s="13"/>
     </row>
@@ -1863,7 +1877,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H15" s="14"/>
     </row>
@@ -1878,7 +1892,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H16" s="14"/>
     </row>
@@ -1893,7 +1907,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H17" s="14"/>
     </row>
@@ -1953,7 +1967,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H21" s="14"/>
     </row>
@@ -1968,7 +1982,7 @@
         <v>18</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H22" s="14"/>
     </row>
@@ -1983,7 +1997,7 @@
         <v>19</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H23" s="14"/>
     </row>
@@ -2028,7 +2042,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H26" s="14"/>
     </row>
@@ -2043,7 +2057,7 @@
         <v>25</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H27" s="14"/>
     </row>
@@ -2052,13 +2066,13 @@
         <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H28" s="14"/>
     </row>
@@ -2067,28 +2081,28 @@
         <v>23</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H29" s="14"/>
     </row>
     <row r="30" spans="2:8" ht="18" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H30" s="14"/>
     </row>
@@ -2103,7 +2117,7 @@
         <v>27</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H31" s="14"/>
     </row>
@@ -2193,7 +2207,7 @@
         <v>34</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H37" s="14"/>
     </row>
@@ -2208,7 +2222,7 @@
         <v>35</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H38" s="14"/>
     </row>
@@ -2223,7 +2237,7 @@
         <v>37</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H39" s="14"/>
     </row>
@@ -2238,7 +2252,7 @@
         <v>36</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H40" s="14"/>
     </row>
@@ -2253,7 +2267,7 @@
         <v>38</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H41" s="14"/>
     </row>
@@ -2268,7 +2282,7 @@
         <v>39</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H42" s="14"/>
     </row>
@@ -2283,7 +2297,7 @@
         <v>40</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H43" s="14"/>
     </row>
@@ -2303,8 +2317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FB5107-BCB9-4175-9B7D-4A97A72C27AE}">
   <dimension ref="A1:AJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+    <sheetView tabSelected="1" topLeftCell="M17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2322,16 +2336,16 @@
     <col min="20" max="20" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.77734375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="35.88671875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="55.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="31.109375" customWidth="1"/>
+    <col min="32" max="32" width="17.77734375" customWidth="1"/>
+    <col min="33" max="33" width="58" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="12" bestFit="1" customWidth="1"/>
@@ -2477,7 +2491,7 @@
         <v>81</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>82</v>
@@ -2495,10 +2509,10 @@
         <v>86</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U2" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V2" s="10" t="s">
         <v>89</v>
@@ -2510,7 +2524,7 @@
         <v>88</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z2" s="10" t="s">
         <v>43</v>
@@ -2551,11 +2565,11 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2646,7 +2660,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -2746,7 +2760,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2759,7 +2773,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -2801,10 +2815,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2845,7 +2859,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2859,7 +2873,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -2916,7 +2930,7 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -2960,7 +2974,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
@@ -3004,7 +3018,7 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
@@ -3049,7 +3063,7 @@
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
@@ -3086,7 +3100,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
@@ -3130,7 +3144,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
@@ -3151,9 +3165,8 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="17" t="s">
-        <v>97</v>
+      <c r="E16" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -3194,10 +3207,9 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="17" t="s">
+        <v>96</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -3207,7 +3219,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -3240,8 +3252,8 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>122</v>
+      <c r="E18" s="17" t="s">
+        <v>150</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3285,7 +3297,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3350,7 +3362,7 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AC20" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
@@ -3393,7 +3405,7 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
@@ -3414,7 +3426,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -3499,10 +3511,10 @@
         <v>95</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AF23" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AG23" s="2" t="s">
         <v>95</v>
@@ -3549,7 +3561,7 @@
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
@@ -3593,7 +3605,7 @@
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AJ25" s="2"/>
     </row>
@@ -3637,7 +3649,7 @@
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AJ26" s="2"/>
     </row>
@@ -3660,7 +3672,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -3729,7 +3741,7 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
       <c r="AJ28" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="18" x14ac:dyDescent="0.3">
@@ -3757,10 +3769,10 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="U29" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
@@ -3783,7 +3795,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3808,7 +3820,7 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
@@ -3821,7 +3833,7 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
       <c r="AJ30" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:36" ht="18" x14ac:dyDescent="0.3">
@@ -3834,32 +3846,32 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
@@ -3910,7 +3922,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
@@ -3999,32 +4011,32 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
@@ -4078,7 +4090,7 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
       <c r="X35" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
@@ -4125,7 +4137,7 @@
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="X36" s="2" t="s">
         <v>95</v>
@@ -4155,32 +4167,32 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -4225,10 +4237,10 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
@@ -4275,32 +4287,32 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -4351,10 +4363,10 @@
         <v>95</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="S40" s="2"/>
       <c r="T40" s="2" t="s">
@@ -4424,7 +4436,7 @@
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
@@ -4481,7 +4493,7 @@
         <v>95</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="T42" s="2" t="s">
         <v>95</v>
@@ -4525,7 +4537,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -4546,7 +4558,7 @@
         <v>81</v>
       </c>
       <c r="N43" s="17" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>

--- a/Documentacion/Primeros y Siguientes.xlsx
+++ b/Documentacion/Primeros y Siguientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\Proyectos\Lenguajes Formales\ProyectoFinalLenguajes\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04FBCEE-A9C5-4E1A-B176-8E78F3452799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315B1FE8-55F3-44A9-916D-ECEE235391BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4D80E8CE-5779-457C-B2F1-9B493165BB0B}"/>
   </bookViews>
